--- a/outputs-HGR-r202/o__Erysipelotrichales.xlsx
+++ b/outputs-HGR-r202/o__Erysipelotrichales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -981,6 +1106,11 @@
         <v>0.9886701765966545</v>
       </c>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>f__Erysipelotrichaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Erysipelotrichales.xlsx
+++ b/outputs-HGR-r202/o__Erysipelotrichales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelotrichaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7064.fa</t>
+          <t>even_MAG-GUT59590.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.005375612920025641</v>
+        <v>0.01687033213985911</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9946243870799744</v>
+        <v>0.9831296678601409</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9946243870799744</v>
+        <v>0.9831296678601409</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1067,17 +1067,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7291.fa</t>
+          <t>even_MAG-GUT7064.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07711731235380226</v>
+        <v>0.005375612920025641</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9228826876461977</v>
+        <v>0.9946243870799744</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9228826876461977</v>
+        <v>0.9946243870799744</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1093,17 +1093,17 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74675.fa</t>
+          <t>even_MAG-GUT7291.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3482802159514271</v>
+        <v>0.07711731235380226</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6517197840485729</v>
+        <v>0.9228826876461977</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6517197840485729</v>
+        <v>0.9228826876461977</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1119,24 +1119,50 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT74675.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3482802159514271</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6517197840485729</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6517197840485729</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9766.fa</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>0.01132982340334554</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>0.9886701765966545</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>0.9886701765966545</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>f__Erysipelotrichaceae</t>
         </is>
